--- a/src/resource/TestDataForPastFutureAbsences.xlsx
+++ b/src/resource/TestDataForPastFutureAbsences.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag Jain\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="1965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,6 +46,9 @@
     <t>ZippCode</t>
   </si>
   <si>
+    <t>Electronic Pin</t>
+  </si>
+  <si>
     <t>sameer@dispostable.com</t>
   </si>
   <si>
@@ -63,9 +62,6 @@
   </si>
   <si>
     <t>City Test</t>
-  </si>
-  <si>
-    <t>Electronic Pin</t>
   </si>
 </sst>
 </file>
@@ -73,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +80,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="39"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
@@ -119,18 +107,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -445,84 +432,81 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>6666666666</v>
+      </c>
+      <c r="B2" s="1">
+        <v>33919</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>6666666666</v>
-      </c>
-      <c r="B2" s="3">
-        <v>33604</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>67898</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>1234</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>